--- a/tests/data.gui/test/concentrations/ds.3p.1eq/kev.concentrations.data.xlsx
+++ b/tests/data.gui/test/concentrations/ds.3p.1eq/kev.concentrations.data.xlsx
@@ -9,16 +9,17 @@
     <sheet name="input_stoich_coefficients" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="input_k_constants_log10" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="input_concentrations" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="equilibrium_concentrations" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="L_fractions" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="percent_error" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="component_names" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="total_concentrations" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="equilibrium_concentrations" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="L_fractions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="percent_error" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="component_names" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -42,6 +43,21 @@
   </si>
   <si>
     <t xml:space="preserve">k_constants_log10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13.88</t>
   </si>
   <si>
     <t xml:space="preserve">eq</t>
@@ -564,28 +580,28 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>3.14</v>
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1.45</v>
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2.79</v>
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>-8.9</v>
+      <c r="A5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>-13.88</v>
+      <c r="A6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -604,13 +620,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -626,35 +642,35 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -673,106 +689,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0.0282941525243784</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.01</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.00132529428269665</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.00962987587251345</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0182941537380262</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.000359693851026544</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.04290641306718e-05</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.21232954483307e-09</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.3182567385564e-12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.001</v>
+        <v>0.0112984533548818</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00746057728079029</v>
+        <v>0.02</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00803478286469403</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0102984634832567</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00168945480400003</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.000275752216180962</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.01151923266116e-08</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.3182567385564e-11</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1e-04</v>
+        <v>0.00117138604001412</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00776186978496925</v>
+        <v>0.01</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00398114666283995</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.00107143629150681</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.000870912511463489</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.000147890706031494</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.01196670192875e-08</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.3182567385564e-10</v>
+        <v>0.005</v>
       </c>
     </row>
   </sheetData>
@@ -791,82 +747,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
+      <c r="A2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.00132529428269665</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00962987587251345</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0182941537380262</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.000359693851026544</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.04290641306718e-05</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.21232954483307e-09</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.3182567385564e-12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
+      <c r="A3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.00746057728079029</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00803478286469403</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0102984634832567</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.00168945480400003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.000275752216180962</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.01151923266116e-08</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.3182567385564e-11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
+      <c r="A4" t="n">
+        <v>1e-04</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.00776186978496925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00398114666283995</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00107143629150681</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.000870912511463489</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000147890706031494</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.01196670192875e-08</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.3182567385564e-10</v>
       </c>
     </row>
   </sheetData>
@@ -885,46 +865,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5.37590805205213e-13</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.1163626406917e-14</v>
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.04473590836862e-11</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6.73402306139437e-12</v>
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.54483933925798e-13</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3.90486254442379e-13</v>
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -943,6 +959,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.37590805205213e-13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.1163626406917e-14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.04473590836862e-11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.73402306139437e-12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.54483933925798e-13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.90486254442379e-13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/tests/data.gui/test/concentrations/ds.3p.1eq/kev.concentrations.data.xlsx
+++ b/tests/data.gui/test/concentrations/ds.3p.1eq/kev.concentrations.data.xlsx
@@ -788,13 +788,13 @@
         <v>0.000359693851026544</v>
       </c>
       <c r="F2" t="n">
-        <v>1.04290641306718e-05</v>
+        <v>0.0000104290641306718</v>
       </c>
       <c r="G2" t="n">
-        <v>1.21232954483307e-09</v>
+        <v>0.00000000121232954483307</v>
       </c>
       <c r="H2" t="n">
-        <v>1.3182567385564e-12</v>
+        <v>0.0000000000013182567385564</v>
       </c>
     </row>
     <row r="3">
@@ -817,15 +817,15 @@
         <v>0.000275752216180962</v>
       </c>
       <c r="G3" t="n">
-        <v>1.01151923266116e-08</v>
+        <v>0.0000000101151923266116</v>
       </c>
       <c r="H3" t="n">
-        <v>1.3182567385564e-11</v>
+        <v>0.000000000013182567385564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1e-04</v>
+        <v>0.0001</v>
       </c>
       <c r="B4" t="n">
         <v>0.00776186978496925</v>
@@ -843,10 +843,10 @@
         <v>0.000147890706031494</v>
       </c>
       <c r="G4" t="n">
-        <v>5.01196670192875e-08</v>
+        <v>0.0000000501196670192875</v>
       </c>
       <c r="H4" t="n">
-        <v>1.3182567385564e-10</v>
+        <v>0.00000000013182567385564</v>
       </c>
     </row>
   </sheetData>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.37590805205213e-13</v>
+        <v>0.000000000000537590805205213</v>
       </c>
       <c r="C2" t="n">
-        <v>2.1163626406917e-14</v>
+        <v>0.000000000000021163626406917</v>
       </c>
     </row>
     <row r="3">
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2.04473590836862e-11</v>
+        <v>0.0000000000204473590836862</v>
       </c>
       <c r="C3" t="n">
-        <v>6.73402306139437e-12</v>
+        <v>0.00000000000673402306139437</v>
       </c>
     </row>
     <row r="4">
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>2.54483933925798e-13</v>
+        <v>0.000000000000254483933925798</v>
       </c>
       <c r="C4" t="n">
-        <v>3.90486254442379e-13</v>
+        <v>0.000000000000390486254442379</v>
       </c>
     </row>
   </sheetData>
